--- a/xlsx/Informe.xlsx
+++ b/xlsx/Informe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Entitat</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Tutoria33</t>
+  </si>
+  <si>
+    <t>Tutoria53</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="HH:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -181,15 +184,6 @@
       <sz val="10.000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -207,7 +201,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -233,15 +227,6 @@
     <border>
       <left style="thin">
         <color auto="1"/>
-      </left>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
       </left>
       <right style="none"/>
       <top style="none"/>
@@ -278,23 +263,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -776,7 +761,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -986,18 +971,6 @@
         <v>36</v>
       </c>
       <c r="V3" s="8"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
     </row>
     <row r="4" ht="63.75">
       <c r="A4" s="7" t="s">
@@ -1389,7 +1362,84 @@
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
     </row>
-    <row r="9" ht="14.25"/>
+    <row r="9" ht="63.75">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9">
+        <v>45606.584502314814</v>
+      </c>
+      <c r="G9" s="9">
+        <v>45619</v>
+      </c>
+      <c r="H9" s="9">
+        <v>45619</v>
+      </c>
+      <c r="I9" s="10">
+        <v>25569.479166666668</v>
+      </c>
+      <c r="J9" s="10">
+        <v>25569.5625</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+    </row>
     <row r="10" ht="14.25"/>
     <row r="11" ht="14.25"/>
     <row r="12" ht="14.25"/>
